--- a/Protocol.xlsx
+++ b/Protocol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asadu\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asadu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250B8000-539F-4221-8072-44F9A68690A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{276113D1-2A7A-40B9-84F2-3D39BE8CEC06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -58,13 +58,28 @@
   </si>
   <si>
     <t>Breadbord Arduino</t>
+  </si>
+  <si>
+    <t>SmartHome</t>
+  </si>
+  <si>
+    <t>Week46-Task 1</t>
+  </si>
+  <si>
+    <t>https://ieeexplore.ieee.org/document/8576259</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>Johnson</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,13 +87,65 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -90,16 +157,47 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -378,110 +476,304 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:H6"/>
+      <selection activeCell="A17" sqref="A17:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="1" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="1" t="s">
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="1" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A5" s="1" t="s">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A6" s="1" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A9" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="11" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="E11" s="9"/>
+      <c r="F11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="J22" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="36">
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F11:K11"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:P9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E3:H3"/>
     <mergeCell ref="E4:H5"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E15" r:id="rId1" xr:uid="{61A021E7-0ED3-4BD9-9F55-4AFC7457A0B0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>